--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153EB37-8AF9-4A54-9819-B65755BB0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB872CBF-C01C-4C27-8F08-2F83B3709691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E379F36C-0D36-47BB-91F1-A215C2CEA45D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -462,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E53F0B4-3B30-4588-B304-DCBF0E28B250}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -480,8 +480,17 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -491,8 +500,17 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1</v>
       </c>
@@ -502,8 +520,17 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -513,8 +540,17 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -522,6 +558,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB872CBF-C01C-4C27-8F08-2F83B3709691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D7FBD-0368-4123-B501-A9B5EE7864BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E379F36C-0D36-47BB-91F1-A215C2CEA45D}"/>
   </bookViews>
@@ -102,12 +102,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,8 +136,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,20 +482,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E53F0B4-3B30-4588-B304-DCBF0E28B250}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -491,13 +509,13 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -511,13 +529,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4">
@@ -531,13 +549,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5">
@@ -551,13 +569,13 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6">
